--- a/tasks/templates/Форма 303.xlsx
+++ b/tasks/templates/Форма 303.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28815" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="Приложение 20 ф303" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Приложение 20 ф303'!$A$10:$AC$10</definedName>
+  </definedNames>
+  <calcPr calcId="145621" calcMode="autoNoTable"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>Приложение 20 к "ПОРЯДКУ ПРЕДСТАВЛЕНИЯ ОТЧЕТНОСТИ В БАНК РОССИИ, РАСПРЕДЕЛЕНИЮ ОБЯЗАННОСТЕЙ ПО ПОДГОТОВКЕ И ПРЕДСТАВЛЕНИЮ ОТЧЕТНОСТИ В БАНК РОССИИ"</t>
   </si>
@@ -22,7 +25,7 @@
     <t>Представляется в УО ДБУиО не позднее 10-го рабочего дня месяца, следующего за отчётным месяцем, путем размещения на корпоративном ресурсе Q:\Public\Projects\Отчетность\РПБУ\ДД.ММ.ГГГГ</t>
   </si>
   <si>
-    <t xml:space="preserve">Сведения о ссудах, предоставленных юридическим лицам   </t>
+    <t>Сведения о ссудах, предоставленных юридическим лицам</t>
   </si>
   <si>
     <t>Раздел 3. Условия договоров</t>
@@ -52,9 +55,6 @@
     <t>процентный период</t>
   </si>
   <si>
-    <t>вид компонента в основе-ставки</t>
-  </si>
-  <si>
     <t>код условия</t>
   </si>
   <si>
@@ -86,14 +86,6 @@
   </si>
   <si>
     <t>по первоначальному договору</t>
-  </si>
-  <si>
-    <t>размер процентной ставки по первоначальному договору, 
-% годовых</t>
-  </si>
-  <si>
-    <t>размер процентной ставки по договору (с учётом изменений) на отчетную дату, 
-% годовых</t>
   </si>
   <si>
     <t>размер процентной ставки по просроченной части ссуды, 
@@ -103,92 +95,127 @@
     <t>Идентификационный код нового кредитного договора</t>
   </si>
   <si>
+    <t>Сумма договора, ед. валюты</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Сумма процентов,  ед. валюты</t>
+  </si>
+  <si>
+    <t>Дата последней реструктуризации*</t>
+  </si>
+  <si>
+    <t>Дата возникновения основания для обращения взыскания на обеспечение*</t>
+  </si>
+  <si>
+    <t>вид компонента в основе ставки</t>
+  </si>
+  <si>
+    <t>код валюты платежа*</t>
+  </si>
+  <si>
+    <t>с учётом изменений</t>
+  </si>
+  <si>
+    <t>${table:dog.C1}</t>
+  </si>
+  <si>
+    <t>${table:dog.C2}</t>
+  </si>
+  <si>
+    <t>${table:dog.C2_1}</t>
+  </si>
+  <si>
+    <t>${table:dog.C2_2}</t>
+  </si>
+  <si>
+    <t>${table:dog.C3}</t>
+  </si>
+  <si>
+    <t>${table:dog.C4}</t>
+  </si>
+  <si>
+    <t>${table:dog.C5}</t>
+  </si>
+  <si>
+    <t>${table:dog.C6}</t>
+  </si>
+  <si>
+    <t>${table:dog.C7}</t>
+  </si>
+  <si>
+    <t>${table:dog.C8}</t>
+  </si>
+  <si>
+    <t>${table:dog.C9}</t>
+  </si>
+  <si>
+    <t>${table:dog.C10}</t>
+  </si>
+  <si>
+    <t>${table:dog.C11}</t>
+  </si>
+  <si>
+    <t>${table:dog.C12}</t>
+  </si>
+  <si>
+    <t>${table:dog.C13}</t>
+  </si>
+  <si>
+    <t>${table:dog.C14}</t>
+  </si>
+  <si>
+    <t>${table:dog.C15}</t>
+  </si>
+  <si>
+    <t>${table:dog.C16}</t>
+  </si>
+  <si>
+    <t>${table:dog.C17}</t>
+  </si>
+  <si>
+    <t>${table:dog.C18}</t>
+  </si>
+  <si>
+    <t>${table:dog.C19}</t>
+  </si>
+  <si>
+    <t>${table:dog.C20}</t>
+  </si>
+  <si>
+    <t>${table:dog.C21}</t>
+  </si>
+  <si>
+    <t>${table:dog.C22}</t>
+  </si>
+  <si>
+    <t>${table:dog.C23}</t>
+  </si>
+  <si>
+    <t>${table:dog.C6_1}</t>
+  </si>
+  <si>
+    <t>${table:dog.C5_1}</t>
+  </si>
+  <si>
+    <t>${table:dog.C4_1}</t>
+  </si>
+  <si>
+    <t>${table:dog.C3_1}</t>
+  </si>
+  <si>
     <t>${date}</t>
   </si>
   <si>
-    <t>Сумма договора, ед. валюты</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>Сумма процентов,  ед. валюты</t>
-  </si>
-  <si>
-    <t>Сумма выплаты основного долга, 
- ед. валюты</t>
-  </si>
-  <si>
-    <t>${table:dog.C1}</t>
-  </si>
-  <si>
-    <t>${table:dog.C2}</t>
-  </si>
-  <si>
-    <t>${table:dog.C3}</t>
-  </si>
-  <si>
-    <t>${table:dog.C2_1}</t>
-  </si>
-  <si>
-    <t>${table:dog.C2_2}</t>
-  </si>
-  <si>
-    <t>${table:dog.C4}</t>
-  </si>
-  <si>
-    <t>${table:dog.C5}</t>
-  </si>
-  <si>
-    <t>${table:dog.C6}</t>
-  </si>
-  <si>
-    <t>${table:dog.C7}</t>
-  </si>
-  <si>
-    <t>${table:dog.C8}</t>
-  </si>
-  <si>
-    <t>${table:dog.C9}</t>
-  </si>
-  <si>
-    <t>${table:dog.C10}</t>
-  </si>
-  <si>
-    <t>${table:dog.C11}</t>
-  </si>
-  <si>
-    <t>${table:dog.C12}</t>
-  </si>
-  <si>
-    <t>${table:dog.C13}</t>
-  </si>
-  <si>
-    <t>${table:dog.C14}</t>
-  </si>
-  <si>
-    <t>${table:dog.C15}</t>
-  </si>
-  <si>
-    <t>${table:dog.C16}</t>
-  </si>
-  <si>
-    <t>${table:dog.C17}</t>
-  </si>
-  <si>
-    <t>${table:dog.C18}</t>
-  </si>
-  <si>
-    <t>${table:dog.C19}</t>
-  </si>
-  <si>
-    <t>${table:dog.C20}</t>
-  </si>
-  <si>
-    <t>${table:dog.C21}</t>
+    <t>размер процентной ставки по договору, % годовых</t>
+  </si>
+  <si>
+    <t>Сумма выплаты основного долга, ед. валюты</t>
   </si>
 </sst>
 </file>
@@ -298,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -322,36 +349,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -366,16 +365,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -386,35 +378,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -441,21 +404,12 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="14" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -469,13 +423,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -493,12 +441,6 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,12 +448,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,67 +462,43 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -615,6 +527,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -910,68 +825,63 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IO18"/>
+  <dimension ref="A1:IU1184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="27" style="15" customWidth="1"/>
-    <col min="9" max="9" width="31.5703125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="15" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="15" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="15" customWidth="1"/>
-    <col min="15" max="15" width="37.28515625" style="15" customWidth="1"/>
-    <col min="16" max="19" width="17.7109375" style="15" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" style="15" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="15" customWidth="1"/>
-    <col min="22" max="23" width="22.7109375" style="15" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="43.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="9" customWidth="1"/>
+    <col min="6" max="12" width="16.7109375" style="10" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="10" customWidth="1"/>
+    <col min="14" max="15" width="13.7109375" style="10" customWidth="1"/>
+    <col min="16" max="18" width="21.7109375" style="10" customWidth="1"/>
+    <col min="19" max="19" width="37.28515625" style="10" customWidth="1"/>
+    <col min="20" max="25" width="17.7109375" style="10" customWidth="1"/>
+    <col min="26" max="26" width="24.7109375" style="10" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="10" customWidth="1"/>
+    <col min="28" max="29" width="22.7109375" style="10" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:249" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:255" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
@@ -1192,37 +1102,43 @@
       <c r="IM1" s="2"/>
       <c r="IN1" s="2"/>
       <c r="IO1" s="2"/>
-    </row>
-    <row r="2" spans="1:249" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
+      <c r="IP1" s="2"/>
+      <c r="IQ1" s="2"/>
+      <c r="IR1" s="2"/>
+      <c r="IS1" s="2"/>
+      <c r="IT1" s="2"/>
+      <c r="IU1" s="2"/>
+    </row>
+    <row r="2" spans="1:255" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
@@ -1443,37 +1359,43 @@
       <c r="IM2" s="2"/>
       <c r="IN2" s="2"/>
       <c r="IO2" s="2"/>
-    </row>
-    <row r="3" spans="1:249" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
+      <c r="IP2" s="2"/>
+      <c r="IQ2" s="2"/>
+      <c r="IR2" s="2"/>
+      <c r="IS2" s="2"/>
+      <c r="IT2" s="2"/>
+      <c r="IU2" s="2"/>
+    </row>
+    <row r="3" spans="1:255" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
@@ -1694,39 +1616,45 @@
       <c r="IM3" s="2"/>
       <c r="IN3" s="2"/>
       <c r="IO3" s="2"/>
-    </row>
-    <row r="4" spans="1:249" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="IP3" s="2"/>
+      <c r="IQ3" s="2"/>
+      <c r="IR3" s="2"/>
+      <c r="IS3" s="2"/>
+      <c r="IT3" s="2"/>
+      <c r="IU3" s="2"/>
+    </row>
+    <row r="4" spans="1:255" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1947,379 +1875,1451 @@
       <c r="IM4" s="2"/>
       <c r="IN4" s="2"/>
       <c r="IO4" s="2"/>
-    </row>
-    <row r="5" spans="1:249" x14ac:dyDescent="0.2">
+      <c r="IP4" s="2"/>
+      <c r="IQ4" s="2"/>
+      <c r="IR4" s="2"/>
+      <c r="IS4" s="2"/>
+      <c r="IT4" s="2"/>
+      <c r="IU4" s="2"/>
+    </row>
+    <row r="5" spans="1:255" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6" spans="1:255" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+    </row>
+    <row r="7" spans="1:255" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-    </row>
-    <row r="6" spans="1:249" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC7" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:255" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="33"/>
+      <c r="M8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y8" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+    </row>
+    <row r="9" spans="1:255" s="10" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+    </row>
+    <row r="10" spans="1:255" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="24" t="s">
+      <c r="F10" s="17">
+        <v>3.1</v>
+      </c>
+      <c r="G10" s="18">
+        <v>4</v>
+      </c>
+      <c r="H10" s="18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I10" s="18">
+        <v>5</v>
+      </c>
+      <c r="J10" s="18">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K10" s="18">
+        <v>6</v>
+      </c>
+      <c r="L10" s="18">
+        <v>6.1</v>
+      </c>
+      <c r="M10" s="18">
+        <v>7</v>
+      </c>
+      <c r="N10" s="18">
+        <v>8</v>
+      </c>
+      <c r="O10" s="18">
+        <v>9</v>
+      </c>
+      <c r="P10" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>11</v>
+      </c>
+      <c r="R10" s="18">
+        <v>12</v>
+      </c>
+      <c r="S10" s="19">
+        <v>13</v>
+      </c>
+      <c r="T10" s="20">
+        <v>14</v>
+      </c>
+      <c r="U10" s="20">
         <v>15</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="V10" s="20">
         <v>16</v>
       </c>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-    </row>
-    <row r="7" spans="1:249" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="50"/>
-      <c r="O7" s="35" t="s">
+      <c r="W10" s="20">
         <v>17</v>
       </c>
-      <c r="P7" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32" t="s">
+      <c r="X10" s="20">
         <v>18</v>
       </c>
-      <c r="U7" s="32" t="s">
+      <c r="Y10" s="20">
         <v>19</v>
       </c>
-      <c r="V7" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="W7" s="32" t="s">
+      <c r="Z10" s="20">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:249" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="33" t="s">
+      <c r="AA10" s="20">
+        <v>21</v>
+      </c>
+      <c r="AB10" s="20">
+        <v>22</v>
+      </c>
+      <c r="AC10" s="20">
         <v>23</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-    </row>
-    <row r="9" spans="1:249" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-    </row>
-    <row r="10" spans="1:249" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
-        <v>1</v>
-      </c>
-      <c r="B10" s="26">
-        <v>2</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="26">
-        <v>3</v>
-      </c>
-      <c r="F10" s="26">
-        <v>4</v>
-      </c>
-      <c r="G10" s="27">
-        <v>5</v>
-      </c>
-      <c r="H10" s="27">
-        <v>6</v>
-      </c>
-      <c r="I10" s="27">
-        <v>7</v>
-      </c>
-      <c r="J10" s="27">
-        <v>8</v>
-      </c>
-      <c r="K10" s="27">
-        <v>9</v>
-      </c>
-      <c r="L10" s="27">
-        <v>10</v>
-      </c>
-      <c r="M10" s="27">
-        <v>11</v>
-      </c>
-      <c r="N10" s="27">
-        <v>12</v>
-      </c>
-      <c r="O10" s="28">
-        <v>13</v>
-      </c>
-      <c r="P10" s="29">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="29">
-        <v>15</v>
-      </c>
-      <c r="R10" s="29">
-        <v>16</v>
-      </c>
-      <c r="S10" s="29">
-        <v>17</v>
-      </c>
-      <c r="T10" s="29">
-        <v>18</v>
-      </c>
-      <c r="U10" s="29">
-        <v>19</v>
-      </c>
-      <c r="V10" s="29">
-        <v>20</v>
-      </c>
-      <c r="W10" s="29">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:249" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:255" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="H11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="J11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="L11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="N11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="O11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="P11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="Q11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="R11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="S11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="T11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="U11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="R11" s="15" t="s">
+      <c r="V11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="S11" s="15" t="s">
+      <c r="W11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="X11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="U11" s="15" t="s">
+      <c r="Y11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="V11" s="15" t="s">
+      <c r="Z11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="W11" s="15" t="s">
+      <c r="AA11" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:249" x14ac:dyDescent="0.2">
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" spans="1:249" x14ac:dyDescent="0.2">
-      <c r="C13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="O13" s="22"/>
-    </row>
-    <row r="14" spans="1:249" x14ac:dyDescent="0.2">
-      <c r="C14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="O14" s="22"/>
-    </row>
-    <row r="15" spans="1:249" x14ac:dyDescent="0.2">
-      <c r="C15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="O15" s="22"/>
-    </row>
-    <row r="16" spans="1:249" x14ac:dyDescent="0.2">
-      <c r="C16" s="15"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="15"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="AB11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC11" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q17" s="23"/>
+    </row>
+    <row r="105" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q105" s="23"/>
+    </row>
+    <row r="106" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q106" s="23"/>
+    </row>
+    <row r="107" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q107" s="23"/>
+    </row>
+    <row r="108" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q108" s="23"/>
+    </row>
+    <row r="109" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q109" s="23"/>
+    </row>
+    <row r="110" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q110" s="23"/>
+    </row>
+    <row r="111" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q111" s="23"/>
+    </row>
+    <row r="112" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q112" s="23"/>
+    </row>
+    <row r="113" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q113" s="23"/>
+    </row>
+    <row r="114" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q114" s="23"/>
+    </row>
+    <row r="115" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q115" s="23"/>
+    </row>
+    <row r="116" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q116" s="23"/>
+    </row>
+    <row r="117" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q117" s="23"/>
+    </row>
+    <row r="118" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q118" s="23"/>
+    </row>
+    <row r="119" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q119" s="23"/>
+    </row>
+    <row r="120" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q120" s="23"/>
+    </row>
+    <row r="121" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q121" s="23"/>
+    </row>
+    <row r="122" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q122" s="23"/>
+    </row>
+    <row r="123" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q123" s="23"/>
+    </row>
+    <row r="124" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q124" s="23"/>
+    </row>
+    <row r="125" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q125" s="23"/>
+    </row>
+    <row r="126" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q126" s="23"/>
+    </row>
+    <row r="127" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q127" s="23"/>
+    </row>
+    <row r="128" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q128" s="23"/>
+    </row>
+    <row r="129" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q129" s="23"/>
+    </row>
+    <row r="130" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q130" s="23"/>
+    </row>
+    <row r="131" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q131" s="23"/>
+    </row>
+    <row r="132" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q132" s="23"/>
+    </row>
+    <row r="133" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q133" s="23"/>
+    </row>
+    <row r="134" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q134" s="23"/>
+    </row>
+    <row r="135" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q135" s="23"/>
+    </row>
+    <row r="136" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q136" s="23"/>
+    </row>
+    <row r="137" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q137" s="23"/>
+    </row>
+    <row r="138" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q138" s="23"/>
+    </row>
+    <row r="139" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q139" s="23"/>
+    </row>
+    <row r="140" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q140" s="23"/>
+    </row>
+    <row r="141" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q141" s="23"/>
+    </row>
+    <row r="142" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q142" s="23"/>
+    </row>
+    <row r="292" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q292" s="23"/>
+    </row>
+    <row r="293" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q293" s="23"/>
+    </row>
+    <row r="294" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q294" s="23"/>
+    </row>
+    <row r="295" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q295" s="23"/>
+    </row>
+    <row r="296" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q296" s="23"/>
+    </row>
+    <row r="297" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q297" s="23"/>
+    </row>
+    <row r="298" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q298" s="23"/>
+    </row>
+    <row r="299" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q299" s="23"/>
+    </row>
+    <row r="300" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q300" s="23"/>
+    </row>
+    <row r="301" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q301" s="23"/>
+    </row>
+    <row r="302" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q302" s="23"/>
+    </row>
+    <row r="303" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q303" s="23"/>
+    </row>
+    <row r="304" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q304" s="23"/>
+    </row>
+    <row r="375" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q375" s="23"/>
+    </row>
+    <row r="376" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q376" s="23"/>
+    </row>
+    <row r="377" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q377" s="23"/>
+    </row>
+    <row r="378" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q378" s="23"/>
+    </row>
+    <row r="379" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q379" s="23"/>
+    </row>
+    <row r="380" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q380" s="23"/>
+    </row>
+    <row r="381" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q381" s="23"/>
+    </row>
+    <row r="382" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q382" s="23"/>
+    </row>
+    <row r="383" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q383" s="23"/>
+    </row>
+    <row r="384" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q384" s="23"/>
+    </row>
+    <row r="385" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q385" s="23"/>
+    </row>
+    <row r="386" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q386" s="23"/>
+    </row>
+    <row r="387" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q387" s="23"/>
+    </row>
+    <row r="388" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q388" s="23"/>
+    </row>
+    <row r="389" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q389" s="23"/>
+    </row>
+    <row r="390" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q390" s="23"/>
+    </row>
+    <row r="391" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q391" s="23"/>
+    </row>
+    <row r="392" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q392" s="23"/>
+    </row>
+    <row r="393" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q393" s="23"/>
+    </row>
+    <row r="394" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q394" s="23"/>
+    </row>
+    <row r="395" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q395" s="23"/>
+    </row>
+    <row r="396" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q396" s="23"/>
+    </row>
+    <row r="397" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q397" s="23"/>
+    </row>
+    <row r="398" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q398" s="23"/>
+    </row>
+    <row r="399" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q399" s="23"/>
+    </row>
+    <row r="400" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q400" s="23"/>
+    </row>
+    <row r="401" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q401" s="23"/>
+    </row>
+    <row r="402" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q402" s="23"/>
+    </row>
+    <row r="403" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q403" s="23"/>
+    </row>
+    <row r="404" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q404" s="23"/>
+    </row>
+    <row r="405" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q405" s="23"/>
+    </row>
+    <row r="406" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q406" s="23"/>
+    </row>
+    <row r="407" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q407" s="23"/>
+    </row>
+    <row r="408" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q408" s="23"/>
+    </row>
+    <row r="409" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q409" s="23"/>
+    </row>
+    <row r="410" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q410" s="23"/>
+    </row>
+    <row r="411" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q411" s="23"/>
+    </row>
+    <row r="412" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q412" s="23"/>
+    </row>
+    <row r="413" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q413" s="23"/>
+    </row>
+    <row r="414" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q414" s="23"/>
+    </row>
+    <row r="415" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q415" s="23"/>
+    </row>
+    <row r="416" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q416" s="23"/>
+    </row>
+    <row r="417" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q417" s="23"/>
+    </row>
+    <row r="418" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q418" s="23"/>
+    </row>
+    <row r="419" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q419" s="23"/>
+    </row>
+    <row r="420" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q420" s="23"/>
+    </row>
+    <row r="421" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q421" s="23"/>
+    </row>
+    <row r="471" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q471" s="23"/>
+    </row>
+    <row r="472" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q472" s="23"/>
+    </row>
+    <row r="473" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q473" s="23"/>
+    </row>
+    <row r="474" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q474" s="23"/>
+    </row>
+    <row r="475" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q475" s="23"/>
+    </row>
+    <row r="476" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q476" s="23"/>
+    </row>
+    <row r="477" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q477" s="23"/>
+    </row>
+    <row r="478" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q478" s="23"/>
+    </row>
+    <row r="489" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q489" s="23"/>
+    </row>
+    <row r="490" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q490" s="23"/>
+    </row>
+    <row r="522" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q522" s="23"/>
+    </row>
+    <row r="523" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q523" s="23"/>
+    </row>
+    <row r="524" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q524" s="23"/>
+    </row>
+    <row r="525" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q525" s="23"/>
+    </row>
+    <row r="526" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q526" s="23"/>
+    </row>
+    <row r="527" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q527" s="23"/>
+    </row>
+    <row r="528" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q528" s="23"/>
+    </row>
+    <row r="529" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q529" s="23"/>
+    </row>
+    <row r="530" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q530" s="23"/>
+    </row>
+    <row r="531" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q531" s="23"/>
+    </row>
+    <row r="532" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q532" s="23"/>
+    </row>
+    <row r="533" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q533" s="23"/>
+    </row>
+    <row r="534" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q534" s="23"/>
+    </row>
+    <row r="535" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q535" s="23"/>
+    </row>
+    <row r="538" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q538" s="23"/>
+    </row>
+    <row r="539" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q539" s="23"/>
+    </row>
+    <row r="540" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q540" s="23"/>
+    </row>
+    <row r="541" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q541" s="23"/>
+    </row>
+    <row r="542" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q542" s="23"/>
+    </row>
+    <row r="543" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q543" s="23"/>
+    </row>
+    <row r="598" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q598" s="23"/>
+    </row>
+    <row r="599" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q599" s="23"/>
+    </row>
+    <row r="600" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q600" s="23"/>
+    </row>
+    <row r="601" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q601" s="23"/>
+    </row>
+    <row r="602" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q602" s="23"/>
+    </row>
+    <row r="603" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q603" s="23"/>
+    </row>
+    <row r="604" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q604" s="23"/>
+    </row>
+    <row r="605" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q605" s="23"/>
+    </row>
+    <row r="606" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q606" s="23"/>
+    </row>
+    <row r="607" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q607" s="23"/>
+    </row>
+    <row r="608" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q608" s="23"/>
+    </row>
+    <row r="609" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q609" s="23"/>
+    </row>
+    <row r="610" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q610" s="23"/>
+    </row>
+    <row r="611" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q611" s="23"/>
+    </row>
+    <row r="612" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q612" s="23"/>
+    </row>
+    <row r="613" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q613" s="23"/>
+    </row>
+    <row r="614" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q614" s="23"/>
+    </row>
+    <row r="615" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q615" s="23"/>
+    </row>
+    <row r="616" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q616" s="23"/>
+    </row>
+    <row r="617" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q617" s="23"/>
+    </row>
+    <row r="618" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q618" s="23"/>
+    </row>
+    <row r="619" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q619" s="23"/>
+    </row>
+    <row r="620" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q620" s="23"/>
+    </row>
+    <row r="621" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q621" s="23"/>
+    </row>
+    <row r="622" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q622" s="23"/>
+    </row>
+    <row r="623" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q623" s="23"/>
+    </row>
+    <row r="624" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q624" s="23"/>
+    </row>
+    <row r="625" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q625" s="23"/>
+    </row>
+    <row r="626" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q626" s="23"/>
+    </row>
+    <row r="627" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q627" s="23"/>
+    </row>
+    <row r="628" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q628" s="23"/>
+    </row>
+    <row r="629" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q629" s="23"/>
+    </row>
+    <row r="630" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q630" s="23"/>
+    </row>
+    <row r="631" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q631" s="23"/>
+    </row>
+    <row r="632" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q632" s="23"/>
+    </row>
+    <row r="633" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q633" s="23"/>
+    </row>
+    <row r="634" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q634" s="23"/>
+    </row>
+    <row r="637" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q637" s="23"/>
+    </row>
+    <row r="638" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q638" s="23"/>
+    </row>
+    <row r="639" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q639" s="23"/>
+    </row>
+    <row r="640" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q640" s="23"/>
+    </row>
+    <row r="641" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q641" s="23"/>
+    </row>
+    <row r="642" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q642" s="23"/>
+    </row>
+    <row r="643" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q643" s="23"/>
+    </row>
+    <row r="644" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q644" s="23"/>
+    </row>
+    <row r="645" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q645" s="23"/>
+    </row>
+    <row r="646" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q646" s="23"/>
+    </row>
+    <row r="647" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q647" s="23"/>
+    </row>
+    <row r="648" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q648" s="23"/>
+    </row>
+    <row r="649" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q649" s="23"/>
+    </row>
+    <row r="650" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q650" s="23"/>
+    </row>
+    <row r="651" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q651" s="23"/>
+    </row>
+    <row r="652" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q652" s="23"/>
+    </row>
+    <row r="653" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q653" s="23"/>
+    </row>
+    <row r="654" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q654" s="23"/>
+    </row>
+    <row r="655" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q655" s="23"/>
+    </row>
+    <row r="656" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q656" s="23"/>
+    </row>
+    <row r="657" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q657" s="23"/>
+    </row>
+    <row r="658" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q658" s="23"/>
+    </row>
+    <row r="659" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q659" s="23"/>
+    </row>
+    <row r="660" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q660" s="23"/>
+    </row>
+    <row r="661" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q661" s="23"/>
+    </row>
+    <row r="662" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q662" s="23"/>
+    </row>
+    <row r="663" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q663" s="23"/>
+    </row>
+    <row r="664" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q664" s="23"/>
+    </row>
+    <row r="665" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q665" s="23"/>
+    </row>
+    <row r="666" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q666" s="23"/>
+    </row>
+    <row r="667" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q667" s="23"/>
+    </row>
+    <row r="668" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q668" s="23"/>
+    </row>
+    <row r="669" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q669" s="23"/>
+    </row>
+    <row r="670" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q670" s="23"/>
+    </row>
+    <row r="671" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q671" s="23"/>
+    </row>
+    <row r="672" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q672" s="23"/>
+    </row>
+    <row r="673" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q673" s="23"/>
+    </row>
+    <row r="674" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q674" s="23"/>
+    </row>
+    <row r="675" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q675" s="23"/>
+    </row>
+    <row r="676" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q676" s="23"/>
+    </row>
+    <row r="677" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q677" s="23"/>
+    </row>
+    <row r="678" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q678" s="23"/>
+    </row>
+    <row r="679" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q679" s="23"/>
+    </row>
+    <row r="680" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q680" s="23"/>
+    </row>
+    <row r="681" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q681" s="23"/>
+    </row>
+    <row r="682" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q682" s="23"/>
+    </row>
+    <row r="683" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q683" s="23"/>
+    </row>
+    <row r="684" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q684" s="23"/>
+    </row>
+    <row r="685" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q685" s="23"/>
+    </row>
+    <row r="686" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q686" s="23"/>
+    </row>
+    <row r="687" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q687" s="23"/>
+    </row>
+    <row r="688" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q688" s="23"/>
+    </row>
+    <row r="689" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q689" s="23"/>
+    </row>
+    <row r="690" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q690" s="23"/>
+    </row>
+    <row r="691" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q691" s="23"/>
+    </row>
+    <row r="692" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q692" s="23"/>
+    </row>
+    <row r="693" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q693" s="23"/>
+    </row>
+    <row r="694" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q694" s="23"/>
+    </row>
+    <row r="695" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q695" s="23"/>
+    </row>
+    <row r="696" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q696" s="23"/>
+    </row>
+    <row r="697" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q697" s="23"/>
+    </row>
+    <row r="698" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q698" s="23"/>
+    </row>
+    <row r="725" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q725" s="23"/>
+    </row>
+    <row r="726" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q726" s="23"/>
+    </row>
+    <row r="727" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q727" s="23"/>
+    </row>
+    <row r="728" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q728" s="23"/>
+    </row>
+    <row r="729" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q729" s="23"/>
+    </row>
+    <row r="730" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q730" s="23"/>
+    </row>
+    <row r="731" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q731" s="23"/>
+    </row>
+    <row r="732" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q732" s="23"/>
+    </row>
+    <row r="733" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q733" s="23"/>
+    </row>
+    <row r="734" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q734" s="23"/>
+    </row>
+    <row r="735" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q735" s="23"/>
+    </row>
+    <row r="736" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q736" s="23"/>
+    </row>
+    <row r="741" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q741" s="23"/>
+    </row>
+    <row r="742" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q742" s="23"/>
+    </row>
+    <row r="743" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q743" s="23"/>
+    </row>
+    <row r="744" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q744" s="23"/>
+    </row>
+    <row r="745" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q745" s="23"/>
+    </row>
+    <row r="746" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q746" s="23"/>
+    </row>
+    <row r="747" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q747" s="23"/>
+    </row>
+    <row r="748" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q748" s="23"/>
+    </row>
+    <row r="749" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q749" s="23"/>
+    </row>
+    <row r="750" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q750" s="23"/>
+    </row>
+    <row r="751" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q751" s="23"/>
+    </row>
+    <row r="752" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q752" s="23"/>
+    </row>
+    <row r="753" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q753" s="23"/>
+    </row>
+    <row r="754" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q754" s="23"/>
+    </row>
+    <row r="755" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q755" s="23"/>
+    </row>
+    <row r="756" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q756" s="23"/>
+    </row>
+    <row r="757" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q757" s="23"/>
+    </row>
+    <row r="758" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q758" s="23"/>
+    </row>
+    <row r="759" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q759" s="23"/>
+    </row>
+    <row r="760" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q760" s="23"/>
+    </row>
+    <row r="761" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q761" s="23"/>
+    </row>
+    <row r="762" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q762" s="23"/>
+    </row>
+    <row r="763" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q763" s="23"/>
+    </row>
+    <row r="764" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q764" s="23"/>
+    </row>
+    <row r="765" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q765" s="23"/>
+    </row>
+    <row r="766" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q766" s="23"/>
+    </row>
+    <row r="767" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q767" s="23"/>
+    </row>
+    <row r="768" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q768" s="23"/>
+    </row>
+    <row r="769" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q769" s="23"/>
+    </row>
+    <row r="770" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q770" s="23"/>
+    </row>
+    <row r="771" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q771" s="23"/>
+    </row>
+    <row r="772" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q772" s="23"/>
+    </row>
+    <row r="773" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q773" s="23"/>
+    </row>
+    <row r="774" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q774" s="23"/>
+    </row>
+    <row r="775" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q775" s="23"/>
+    </row>
+    <row r="776" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q776" s="23"/>
+    </row>
+    <row r="777" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q777" s="23"/>
+    </row>
+    <row r="778" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q778" s="23"/>
+    </row>
+    <row r="779" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q779" s="23"/>
+    </row>
+    <row r="780" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q780" s="23"/>
+    </row>
+    <row r="781" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q781" s="23"/>
+    </row>
+    <row r="782" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q782" s="23"/>
+    </row>
+    <row r="783" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q783" s="23"/>
+    </row>
+    <row r="784" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q784" s="23"/>
+    </row>
+    <row r="785" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q785" s="23"/>
+    </row>
+    <row r="786" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q786" s="23"/>
+    </row>
+    <row r="787" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q787" s="23"/>
+    </row>
+    <row r="788" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q788" s="23"/>
+    </row>
+    <row r="789" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q789" s="23"/>
+    </row>
+    <row r="790" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q790" s="23"/>
+    </row>
+    <row r="791" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q791" s="23"/>
+    </row>
+    <row r="792" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q792" s="23"/>
+    </row>
+    <row r="793" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q793" s="23"/>
+    </row>
+    <row r="794" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q794" s="23"/>
+    </row>
+    <row r="795" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q795" s="23"/>
+    </row>
+    <row r="796" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q796" s="23"/>
+    </row>
+    <row r="797" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q797" s="23"/>
+    </row>
+    <row r="798" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q798" s="23"/>
+    </row>
+    <row r="799" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q799" s="23"/>
+    </row>
+    <row r="800" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q800" s="23"/>
+    </row>
+    <row r="801" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q801" s="23"/>
+    </row>
+    <row r="802" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q802" s="23"/>
+    </row>
+    <row r="803" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q803" s="23"/>
+    </row>
+    <row r="804" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q804" s="23"/>
+    </row>
+    <row r="805" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q805" s="23"/>
+    </row>
+    <row r="806" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q806" s="23"/>
+    </row>
+    <row r="807" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q807" s="23"/>
+    </row>
+    <row r="808" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q808" s="23"/>
+    </row>
+    <row r="809" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q809" s="23"/>
+    </row>
+    <row r="810" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q810" s="23"/>
+    </row>
+    <row r="811" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q811" s="23"/>
+    </row>
+    <row r="812" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q812" s="23"/>
+    </row>
+    <row r="813" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q813" s="23"/>
+    </row>
+    <row r="814" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q814" s="23"/>
+    </row>
+    <row r="815" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q815" s="23"/>
+    </row>
+    <row r="816" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q816" s="23"/>
+    </row>
+    <row r="817" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q817" s="23"/>
+    </row>
+    <row r="818" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q818" s="23"/>
+    </row>
+    <row r="819" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q819" s="23"/>
+    </row>
+    <row r="820" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q820" s="23"/>
+    </row>
+    <row r="821" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q821" s="23"/>
+    </row>
+    <row r="827" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q827" s="23"/>
+    </row>
+    <row r="1178" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S1178" s="15"/>
+    </row>
+    <row r="1179" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C1179" s="10"/>
+      <c r="E1179" s="10"/>
+      <c r="S1179" s="15"/>
+    </row>
+    <row r="1180" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C1180" s="10"/>
+      <c r="E1180" s="10"/>
+      <c r="S1180" s="15"/>
+    </row>
+    <row r="1181" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C1181" s="10"/>
+      <c r="E1181" s="10"/>
+      <c r="S1181" s="15"/>
+    </row>
+    <row r="1182" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C1182" s="10"/>
+      <c r="E1182" s="10"/>
+    </row>
+    <row r="1183" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C1183" s="10"/>
+      <c r="E1183" s="10"/>
+    </row>
+    <row r="1184" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C1184" s="10"/>
+      <c r="E1184" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="F8:F9"/>
+  <autoFilter ref="A10:AC10"/>
+  <mergeCells count="34">
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="T6:AC6"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="V7:V9"/>
-    <mergeCell ref="W7:W9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="U7:U9"/>
-    <mergeCell ref="P7:Q8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="Z7:Z9"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="AC7:AC9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="28" orientation="landscape" r:id="rId1"/>
